--- a/data/trans_bre/P23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.754599770746468</v>
+        <v>-9.129314449639923</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.428230737752159</v>
+        <v>-3.823459716349904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.83219878424772</v>
+        <v>-13.60293537235294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.73521747147237</v>
+        <v>-12.2860565766174</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2273586640362512</v>
+        <v>-0.2279621355915993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1050038096758806</v>
+        <v>-0.1094419203325991</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3709022064969008</v>
+        <v>-0.3717647321626305</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.457483751336198</v>
+        <v>-0.4355117583559501</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.239372876233397</v>
+        <v>2.912064239877249</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.725782682468331</v>
+        <v>9.310606221177117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.004078586294446</v>
+        <v>-0.967662897251869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.427861039073433</v>
+        <v>5.370382960660891</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09754646815376748</v>
+        <v>0.08846212242032074</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3148707399908463</v>
+        <v>0.3459896836413328</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.02700690104438735</v>
+        <v>-0.03210773624543819</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2314765518256997</v>
+        <v>0.3129335848656193</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.412049608064491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-9.534883442985006</v>
+        <v>-9.534883442985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2919387549051983</v>
@@ -749,7 +749,7 @@
         <v>-0.1450228296604738</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.28135051812268</v>
+        <v>-0.2813505181226799</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-19.99541939643665</v>
+        <v>-19.6300150503687</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.381190586832908</v>
+        <v>-9.12148842474827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.3178477490578</v>
+        <v>-11.52302749727965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-16.05267450498921</v>
+        <v>-16.16852017637332</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3825906996237459</v>
+        <v>-0.379022995116076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2029615554706209</v>
+        <v>-0.1998433470346725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2608384441220452</v>
+        <v>-0.2442275593175057</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4299354713236733</v>
+        <v>-0.4244949725693382</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-9.094254276755169</v>
+        <v>-8.27919657721529</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.12465645950406</v>
+        <v>2.023190148142183</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.6326306759697775</v>
+        <v>-0.205754331110258</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.069130788627087</v>
+        <v>-2.518561679671157</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1949078884763054</v>
+        <v>-0.1800772878341201</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05185040335893652</v>
+        <v>0.04800916150717583</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.01143283711687589</v>
+        <v>-0.005836037115320878</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.07425477844698897</v>
+        <v>-0.08568698568524204</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-6.429881014921812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.626921660797788</v>
+        <v>-3.626921660797794</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2889595266795636</v>
@@ -849,7 +849,7 @@
         <v>-0.1614639629747268</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.133500155454966</v>
+        <v>-0.1335001554549662</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.84618652016417</v>
+        <v>-20.38119989173789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.24170679682874</v>
+        <v>-17.29188133967151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.95307552382531</v>
+        <v>-11.99646449189754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.291306143062101</v>
+        <v>-8.519456880385977</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3785890477452066</v>
+        <v>-0.3710711061478655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3531700546100737</v>
+        <v>-0.3574475738978166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2791676634591864</v>
+        <v>-0.2761381692191032</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2788318130013124</v>
+        <v>-0.2846207817916068</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-9.608746674752863</v>
+        <v>-9.565013650772134</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.281525015617945</v>
+        <v>-6.760962852737305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.131382748603126</v>
+        <v>-1.329577360177243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.322249745760258</v>
+        <v>1.119247345836016</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1914092033196173</v>
+        <v>-0.1958937648927791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.146555897366279</v>
+        <v>-0.155620059749559</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.0305757782827183</v>
+        <v>-0.02656905390162226</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05250480790767262</v>
+        <v>0.04601335044810745</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-7.320641459307575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-4.205839272200865</v>
+        <v>-4.205839272200857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3740922669904469</v>
@@ -949,7 +949,7 @@
         <v>-0.1702491034202924</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1506179675207487</v>
+        <v>-0.1506179675207484</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-22.06935717040669</v>
+        <v>-22.79556247098893</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.63794085601199</v>
+        <v>-11.84383985914329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.30083900077424</v>
+        <v>-12.96646226707253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.600808875014602</v>
+        <v>-8.590275993017569</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4756284086865539</v>
+        <v>-0.4750953956725924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2607271125352653</v>
+        <v>-0.2523455258262286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2833187616461363</v>
+        <v>-0.2811428190590924</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2768118085921468</v>
+        <v>-0.2761118988717711</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-10.85544161131358</v>
+        <v>-10.3846320595891</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.2191193219894755</v>
+        <v>-0.1285330221599339</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.905660946805295</v>
+        <v>-1.880910776456271</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.009199405564705589</v>
+        <v>-0.006102473174333017</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2662375164863258</v>
+        <v>-0.2583786773495596</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.006528214367697458</v>
+        <v>-0.003442205897217686</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04708789087389841</v>
+        <v>-0.04562969443401451</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.001344614070773916</v>
+        <v>0.0009589273530331407</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-7.710619609309544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-8.881999613681369</v>
+        <v>-8.881999613681355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6487577108643856</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2509627771323322</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2870191658834865</v>
+        <v>-0.2870191658834861</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-26.59138609293113</v>
+        <v>-27.29286279441358</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-27.40126458934172</v>
+        <v>-26.84235347176475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.02649640622367</v>
+        <v>-13.96306398302721</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.56958914427424</v>
+        <v>-13.438642970193</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7406373908568762</v>
+        <v>-0.7481880969697285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6821482847104815</v>
+        <v>-0.6860939416871549</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4090601662586843</v>
+        <v>-0.410416378436437</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3983749328363806</v>
+        <v>-0.3960807716252237</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-15.13702718603088</v>
+        <v>-15.93155053057826</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-14.88481722001598</v>
+        <v>-15.09336774268656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.056232912761769</v>
+        <v>-2.070830425403718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-4.496751003429053</v>
+        <v>-4.438609814305452</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5120832014604066</v>
+        <v>-0.5254216895343058</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.463541937242668</v>
+        <v>-0.4589457308159928</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.07343222589935082</v>
+        <v>-0.07625992084331383</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1583620784897897</v>
+        <v>-0.1582776665073903</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-9.468683122334731</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-5.970942665844922</v>
+        <v>-5.970942665844927</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.8943422672998098</v>
@@ -1149,7 +1149,7 @@
         <v>-0.5436316085644581</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3245931308532213</v>
+        <v>-0.3245931308532214</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-20.96557879444437</v>
+        <v>-21.15328144229925</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-16.41629007978964</v>
+        <v>-16.57067240581803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-14.66227503081882</v>
+        <v>-15.19264907558605</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-10.1587588005034</v>
+        <v>-10.16836482864817</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9550057860922618</v>
+        <v>-0.9584688338035634</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8179478728852813</v>
+        <v>-0.8248875497207558</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7074283388976774</v>
+        <v>-0.7119970229327136</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4842906187658277</v>
+        <v>-0.4793139191225432</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-11.88416136061395</v>
+        <v>-11.81566654827376</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-5.89306086454866</v>
+        <v>-5.860879536380696</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-4.439046528718061</v>
+        <v>-4.434302942509065</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-1.964411357020496</v>
+        <v>-2.46653174185709</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.7802786402628746</v>
+        <v>-0.7887509693860411</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4386933813807509</v>
+        <v>-0.4016336564517407</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.31196994831876</v>
+        <v>-0.3058172825792275</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1305836616601261</v>
+        <v>-0.1492140367179395</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.12733709085156</v>
+        <v>-14.17794155456404</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.45664452568881</v>
+        <v>-14.96636878467302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.86298866726687</v>
+        <v>-11.21657486217237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.909482400549718</v>
+        <v>-8.171181959949006</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9701295508379334</v>
+        <v>-0.9677270273389686</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.9780276924553135</v>
+        <v>-0.9801320549329957</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.9278265270231655</v>
+        <v>-0.9222416055695555</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.8936927499150391</v>
+        <v>-0.8960682127300015</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.066980469778162</v>
+        <v>-5.415754313925827</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.115249689014738</v>
+        <v>-5.950957468074496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.149822891297345</v>
+        <v>-3.872764640854488</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.948844391465805</v>
+        <v>-3.135705664295191</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.6366970842060514</v>
+        <v>-0.614633064025512</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.6838743085539584</v>
+        <v>-0.6799128410691941</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.464049563783755</v>
+        <v>-0.4940059608948807</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.582720659730702</v>
+        <v>-0.5934173225564073</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-8.618435409294895</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-6.596757326203623</v>
+        <v>-6.596757326203625</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.3837713167823272</v>
@@ -1349,7 +1349,7 @@
         <v>-0.2485874753544713</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.258191109405278</v>
+        <v>-0.2581911094052781</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-17.58010048208848</v>
+        <v>-17.38880271675206</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-12.11473938998892</v>
+        <v>-12.04317998325805</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.03498612968204</v>
+        <v>-10.92831266839992</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-8.762700066597613</v>
+        <v>-8.797270953072958</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4286140395398305</v>
+        <v>-0.4276202864336769</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3200440593906588</v>
+        <v>-0.3182573251896404</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.30697451279171</v>
+        <v>-0.3031018248083613</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3248673048527378</v>
+        <v>-0.3251631560685456</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-12.93842911611875</v>
+        <v>-12.85996769731355</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-7.58728030781536</v>
+        <v>-7.430402456661368</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-6.245283323771165</v>
+        <v>-6.412017524334619</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-4.675301983172993</v>
+        <v>-4.607598265242213</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3372361833797471</v>
+        <v>-0.3327638103518208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.210808310926945</v>
+        <v>-0.2106655424536729</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1849994559241177</v>
+        <v>-0.1905491815717912</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1925028855782184</v>
+        <v>-0.1870672328664824</v>
       </c>
     </row>
     <row r="28">
